--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1169880.299586989</v>
+        <v>1167320.115427125</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673446</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>179.1286752937633</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>285.1510372213131</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>26.30660220273212</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -832,7 +832,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -868,7 +868,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>67.22331801800635</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>70.49595672079337</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>41.04628703638781</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>79.4165396514655</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>30.09519610355542</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>73.24756871688422</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>259.6580847920595</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>76.83081349792759</v>
+        <v>90.69811547110066</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>134.0701272155113</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.6077720323805</v>
+        <v>22.60777203238052</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114115</v>
+        <v>97.97552699114117</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>197.8638354969146</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458127</v>
+        <v>87.05432226458129</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035337</v>
+        <v>9.753166794035351</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>31.47781736134517</v>
+        <v>8.465423753190171</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400679</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672551</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001811</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>2.119387955707412</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>123.2924938883176</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>123.3988099269028</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>160.428800290701</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187886</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>-6.41004286687045e-12</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>39.19314274111555</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>100.2041656279968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.3264904208969</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428217</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417127</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181936</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>4.019807611472247</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,10 +2767,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>177.9413471369484</v>
       </c>
     </row>
     <row r="29">
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881303</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>84.72447871629807</v>
       </c>
       <c r="F31" t="n">
-        <v>35.41770597126662</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>132.6315337216688</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>192.7715349547546</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722643</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.051798896398395e-12</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>141.4641157700654</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,7 +3433,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>144.7193406055813</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060509</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>41.55695577161283</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053466</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179546</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>182.3203821379249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1214.090290083873</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="C2" t="n">
-        <v>1214.090290083873</v>
+        <v>1815.096543250394</v>
       </c>
       <c r="D2" t="n">
-        <v>1214.090290083873</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>828.3020374856285</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>821.356536736425</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>405.6517864607139</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X2" t="n">
-        <v>1604.229622059685</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1214.090290083873</v>
+        <v>2184.059060190805</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507746</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4480,58 +4480,58 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1269.331624317611</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1269.331624317611</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1269.331624317611</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>1269.331624317611</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>1269.331624317611</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1114.255484944676</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.6665353554979</v>
+        <v>1158.463096854643</v>
       </c>
       <c r="C5" t="n">
-        <v>565.7040184150862</v>
+        <v>789.5005799142318</v>
       </c>
       <c r="D5" t="n">
-        <v>207.4383198083357</v>
+        <v>789.5005799142318</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166253</v>
+        <v>403.7123273159876</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>396.7668265667841</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.26637541962</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310612</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625327</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217527</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.63996629486</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800311</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1556.227393153825</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1333.24891234856</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1044.130574852398</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>789.4460866465112</v>
+        <v>1606.046932091108</v>
       </c>
       <c r="W7" t="n">
-        <v>500.0289166095505</v>
+        <v>1316.629762054147</v>
       </c>
       <c r="X7" t="n">
-        <v>272.0393657115332</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.24678656800311</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1660.900948886692</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.93843194628</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D8" t="n">
-        <v>933.6727333395299</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="E8" t="n">
-        <v>547.8844807412856</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F8" t="n">
-        <v>136.8985759516781</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>125.234229716371</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2300.058434670803</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>1947.289779400689</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926626</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.500788950814</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>483.0441129489465</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4993,19 +4993,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1558.839237753358</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>1304.154749547471</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>1014.73757951051</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>1014.73757951051</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2039.925018196099</v>
+        <v>2039.9250181961</v>
       </c>
       <c r="C11" t="n">
         <v>1670.962501255688</v>
       </c>
       <c r="D11" t="n">
-        <v>1312.696802648937</v>
+        <v>1312.696802648938</v>
       </c>
       <c r="E11" t="n">
-        <v>926.9085500506931</v>
+        <v>926.9085500506935</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610856</v>
+        <v>515.922645261086</v>
       </c>
       <c r="G11" t="n">
         <v>101.3471995907326</v>
@@ -5036,10 +5036,10 @@
         <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469166</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386822</v>
       </c>
       <c r="K11" t="n">
         <v>704.5155104420301</v>
@@ -5054,37 +5054,37 @@
         <v>2485.18066176542</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687096</v>
+        <v>3070.226377687095</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856278</v>
+        <v>3535.048359856276</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882235</v>
+        <v>3835.937563882233</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234585</v>
+        <v>3925.553311234583</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455655</v>
+        <v>3826.588132455653</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971435</v>
+        <v>3622.786021971433</v>
       </c>
       <c r="U11" t="n">
-        <v>3622.786021971435</v>
+        <v>3369.295305604041</v>
       </c>
       <c r="V11" t="n">
-        <v>3291.723134627864</v>
+        <v>3169.432845506147</v>
       </c>
       <c r="W11" t="n">
-        <v>2938.95447935775</v>
+        <v>2816.664190236033</v>
       </c>
       <c r="X11" t="n">
-        <v>2565.48872109667</v>
+        <v>2816.664190236033</v>
       </c>
       <c r="Y11" t="n">
-        <v>2175.349389120858</v>
+        <v>2426.524858260222</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,25 +5112,25 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503043</v>
+        <v>88.3627498550304</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469166</v>
       </c>
       <c r="J12" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469166</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831287</v>
+        <v>78.51106622469166</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104377</v>
+        <v>480.1171086843932</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282812</v>
+        <v>993.4308829282818</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279347</v>
+        <v>1534.739190279348</v>
       </c>
       <c r="O12" t="n">
         <v>2007.710743145096</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.461577324819</v>
+        <v>699.4615773248181</v>
       </c>
       <c r="C13" t="n">
-        <v>667.665802212349</v>
+        <v>690.9106442407883</v>
       </c>
       <c r="D13" t="n">
-        <v>517.5491628000133</v>
+        <v>540.7940048284526</v>
       </c>
       <c r="E13" t="n">
-        <v>369.6360692176202</v>
+        <v>392.8809112460594</v>
       </c>
       <c r="F13" t="n">
-        <v>222.7461217197098</v>
+        <v>245.9909637481491</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469166</v>
       </c>
       <c r="H13" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469166</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246917</v>
+        <v>78.51106622469166</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600397</v>
+        <v>139.0818334600395</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457698</v>
+        <v>368.4550473457696</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888908</v>
+        <v>717.5002252888904</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1095.908548779219</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542992</v>
+        <v>1470.753784542991</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715847</v>
+        <v>1800.967734715846</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082519</v>
+        <v>2060.002133082518</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551102</v>
+        <v>2155.909043551101</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551102</v>
+        <v>2155.909043551101</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551102</v>
+        <v>2155.909043551101</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101148</v>
+        <v>1935.094986101147</v>
       </c>
       <c r="U13" t="n">
-        <v>1646.004279541437</v>
+        <v>1646.004279541436</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.31979133555</v>
+        <v>1391.319791335549</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.902621298589</v>
+        <v>1101.902621298588</v>
       </c>
       <c r="X13" t="n">
-        <v>1101.902621298589</v>
+        <v>1101.902621298588</v>
       </c>
       <c r="Y13" t="n">
-        <v>881.1100421550587</v>
+        <v>881.1100421550578</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>328.4394675364392</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894392</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331903</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O15" t="n">
-        <v>2128.167016284654</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2547.75053471073</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.5402036081962</v>
+        <v>561.9183350635724</v>
       </c>
       <c r="C16" t="n">
-        <v>679.6040206802893</v>
+        <v>392.9821521356655</v>
       </c>
       <c r="D16" t="n">
-        <v>529.4873812679535</v>
+        <v>242.8655127233296</v>
       </c>
       <c r="E16" t="n">
-        <v>381.5742876855604</v>
+        <v>94.95241914093663</v>
       </c>
       <c r="F16" t="n">
-        <v>234.6843401876501</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876501</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861979</v>
@@ -5452,34 +5452,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410167</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.696992124549</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439276</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.936290233389</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196428</v>
+        <v>1192.34892993536</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.981247581966</v>
+        <v>964.3593790373423</v>
       </c>
       <c r="Y16" t="n">
-        <v>1030.188668438436</v>
+        <v>743.5667998938121</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179079</v>
+        <v>639.6425904082691</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5477693179079</v>
+        <v>470.7064074803623</v>
       </c>
       <c r="D19" t="n">
-        <v>762.547769317908</v>
+        <v>470.7064074803623</v>
       </c>
       <c r="E19" t="n">
-        <v>614.634675735515</v>
+        <v>322.7933138979691</v>
       </c>
       <c r="F19" t="n">
-        <v>467.7447282376047</v>
+        <v>175.9033664000588</v>
       </c>
       <c r="G19" t="n">
-        <v>300.5486289524847</v>
+        <v>175.9033664000588</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000588</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>983.340348461438</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179079</v>
+        <v>821.2910552385089</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.6725264685178</v>
+        <v>948.5505208511843</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>779.6143379232774</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1868.398285759932</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1578.981115722971</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1350.991564824954</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987576</v>
+        <v>1130.198985681424</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096656</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,13 +6203,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,19 +6218,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.899304487669</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597622</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>1280.315625093765</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327647</v>
+        <v>954.2476448606609</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048579</v>
+        <v>785.311461932754</v>
       </c>
       <c r="D31" t="n">
-        <v>444.701316492522</v>
+        <v>635.1948225204183</v>
       </c>
       <c r="E31" t="n">
-        <v>296.788222910129</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630045</v>
+        <v>1135.896109690901</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
         <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168627</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6722,28 +6722,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.043492616111</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2312.991837396757</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U34" t="n">
-        <v>2023.916610740955</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>941.1773875143806</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>720.3848083708505</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362695</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.043492616111</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2148.043492616111</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>990.5373202159225</v>
+        <v>951.7772127656161</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>782.8410298377092</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359457</v>
+        <v>1400.559342807164</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.329899359457</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y37" t="n">
-        <v>990.5373202159266</v>
+        <v>951.7772127656161</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925227</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101297</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122194</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,49 +7333,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.754138832765</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048581</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925225</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925225</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7573,13 +7573,13 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
         <v>2035.089393279803</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.4026036630047</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="44">
@@ -7643,16 +7643,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7664,7 +7664,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.6673633290469</v>
+        <v>571.6607764188002</v>
       </c>
       <c r="C46" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908933</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908934</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166296</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U46" t="n">
-        <v>2043.199616443681</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1788.515128237794</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W46" t="n">
-        <v>1499.097958200834</v>
+        <v>1202.091371290587</v>
       </c>
       <c r="X46" t="n">
-        <v>1271.108407302816</v>
+        <v>974.1018203925701</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.315828159286</v>
+        <v>753.3092412490399</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L3" t="n">
-        <v>186.4490126143855</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>294.8344935184736</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5911984019043</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-3.543113284363628e-14</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>248.6637144479693</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>129.8884229732203</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7690037372827</v>
+        <v>158.7813973454377</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400679</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034046</v>
+        <v>89.71507747034047</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146351</v>
+        <v>79.00824149146352</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.29152613728925</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372931</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>102.4171615007196</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>16.89590291932109</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>58.15585306139374</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>212.9445005827125</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>144.5956654067401</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>40.64330621514637</v>
       </c>
     </row>
     <row r="29">
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.730455778670148e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>61.70948393027111</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>48.39475227997579</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>24.63391537253366</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25160,7 +25160,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>25.78270532856244</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>72.68610972170694</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.0033420516638</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194171</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>103.8640922513184</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>103.8640922513192</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>872750.2685986212</v>
+        <v>872750.2685986211</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>949858.115289822</v>
+        <v>949858.1152898223</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>955106.6382508927</v>
+        <v>955106.6382508931</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>955106.6382508926</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>955106.6382508931</v>
+        <v>955106.638250893</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>955106.638250893</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>955106.6382508929</v>
+        <v>955106.638250893</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>955106.6382508929</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955106.638250893</v>
+        <v>955106.6382508929</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>955106.6382508929</v>
+        <v>955106.6382508927</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719631</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="E2" t="n">
-        <v>423807.2415876632</v>
+        <v>423807.2415876631</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918677</v>
+        <v>461540.8686918678</v>
       </c>
       <c r="G2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="H2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>464109.2948217535</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
@@ -26344,13 +26344,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357049</v>
+        <v>325187.1190357044</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051391</v>
+        <v>166521.34710514</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557898</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456787</v>
+        <v>84929.59434456761</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.4065584892</v>
+        <v>43782.40655848967</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224638</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7408.247504413623</v>
@@ -26433,22 +26433,22 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="I4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719656</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719589</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719612</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
@@ -26473,10 +26473,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214698</v>
+        <v>86093.72216214694</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26497,10 +26497,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868704.4018905454</v>
+        <v>-868704.4018905457</v>
       </c>
       <c r="C6" t="n">
-        <v>246047.3816853738</v>
+        <v>246047.381685374</v>
       </c>
       <c r="D6" t="n">
         <v>246047.3816853739</v>
       </c>
       <c r="E6" t="n">
-        <v>5118.152885397649</v>
+        <v>4908.188641553375</v>
       </c>
       <c r="F6" t="n">
-        <v>187376.5572323959</v>
+        <v>187330.6522368294</v>
       </c>
       <c r="G6" t="n">
-        <v>344312.1603005475</v>
+        <v>344277.4223751121</v>
       </c>
       <c r="H6" t="n">
-        <v>355479.3965361266</v>
+        <v>355444.6586106913</v>
       </c>
       <c r="I6" t="n">
-        <v>355479.3965361269</v>
+        <v>355444.6586106912</v>
       </c>
       <c r="J6" t="n">
-        <v>187874.2187261442</v>
+        <v>187839.4808007089</v>
       </c>
       <c r="K6" t="n">
-        <v>355479.396536127</v>
+        <v>355444.658610691</v>
       </c>
       <c r="L6" t="n">
-        <v>355479.396536127</v>
+        <v>355444.6586106912</v>
       </c>
       <c r="M6" t="n">
-        <v>270549.802191559</v>
+        <v>270515.0642661236</v>
       </c>
       <c r="N6" t="n">
-        <v>311696.9899776376</v>
+        <v>311662.2520522015</v>
       </c>
       <c r="O6" t="n">
-        <v>352456.098558902</v>
+        <v>352421.3606334667</v>
       </c>
       <c r="P6" t="n">
-        <v>355479.3965361271</v>
+        <v>355444.6586106914</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494554</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086463</v>
+        <v>981.3883278086457</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,25 +26966,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770154</v>
+        <v>278.105375377015</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218308</v>
+        <v>145.8707812218315</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086074</v>
+        <v>340.8034957086066</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173612</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086077</v>
+        <v>340.8034957086066</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173591</v>
+        <v>178.756962517361</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086074</v>
+        <v>340.8034957086066</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173612</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>175.5543663269196</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>15.86751534109226</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>153.5253779792052</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>153.5253779792056</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>311.4344133514684</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>370.5014157365662</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,16 +27822,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>115.245920710272</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>222.0424472202726</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>227.7709838455212</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27910,13 +27910,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>68.09417367807544</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28065,7 +28065,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>209.396340623273</v>
+        <v>195.5290386500999</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.428094894933433e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.41004286687045e-12</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.266187155124499e-12</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-4.051798896398395e-12</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31449,16 +31449,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485643</v>
+        <v>4.873046301485641</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508985</v>
+        <v>49.90608543508984</v>
       </c>
       <c r="I11" t="n">
         <v>187.8681175380254</v>
@@ -31762,28 +31762,28 @@
         <v>413.5937135307174</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726049</v>
+        <v>619.8697634726047</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216962</v>
+        <v>769.0032542216961</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857414</v>
+        <v>855.6642913857413</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898376</v>
+        <v>869.5098341898374</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294397</v>
+        <v>821.0534800294396</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615128</v>
+        <v>700.7501494615127</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895581</v>
+        <v>526.234178789558</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356978</v>
+        <v>306.1064947356977</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951042</v>
@@ -31832,31 +31832,31 @@
         <v>2.607309631969419</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191519</v>
+        <v>25.18112197191518</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596466</v>
+        <v>89.76921320596465</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202549</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256409</v>
+        <v>544.2170489310879</v>
       </c>
       <c r="M12" t="n">
-        <v>355.5501343440825</v>
+        <v>660.632795784532</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147131</v>
+        <v>678.117780114713</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431802</v>
+        <v>620.3452877431801</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205464</v>
+        <v>497.8817840205463</v>
       </c>
       <c r="Q12" t="n">
         <v>332.8207874071841</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.4296328569758</v>
+        <v>48.42963285697579</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780656</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236082</v>
+        <v>2.185880810236081</v>
       </c>
       <c r="H13" t="n">
         <v>19.43446756737172</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691782</v>
+        <v>65.73539745691781</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836909</v>
       </c>
       <c r="K13" t="n">
         <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509172</v>
+        <v>324.9808615509171</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263705</v>
+        <v>342.6467528263704</v>
       </c>
       <c r="N13" t="n">
-        <v>334.499378897309</v>
+        <v>334.4993788973089</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050056</v>
+        <v>308.9643167050055</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761893</v>
+        <v>264.3723481761892</v>
       </c>
       <c r="Q13" t="n">
         <v>183.0377103916777</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570598</v>
+        <v>98.28514988570596</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929607</v>
+        <v>38.09394102929606</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826892</v>
+        <v>9.33967255282689</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765137</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848223</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.0576276814862</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>384.4721492652006</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319844</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,7 +33524,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>543.0832917018702</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,7 +33761,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,34 +33971,34 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,34 +34208,34 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>567.5882829286702</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L3" t="n">
-        <v>484.1293732522357</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>544.5140226420058</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.5838886097709</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>373.178694645389</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>232.5478090040311</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276243</v>
+        <v>399.7799124276242</v>
       </c>
       <c r="L11" t="n">
         <v>533.2368392517089</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584687</v>
+        <v>625.3180581584686</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932467</v>
+        <v>640.0967705932464</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077529</v>
+        <v>590.9552686077528</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062433</v>
+        <v>469.5171537062432</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151086</v>
+        <v>303.9284889151085</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156564</v>
+        <v>90.52095692156558</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458959</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457667</v>
+        <v>405.6626691512137</v>
       </c>
       <c r="M12" t="n">
-        <v>213.4161004220642</v>
+        <v>518.4987618625137</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313799</v>
+        <v>546.7760680313797</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987357</v>
+        <v>477.7490432987356</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062162</v>
+        <v>363.9073766062161</v>
       </c>
       <c r="Q12" t="n">
         <v>192.8390133211626</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701818</v>
+        <v>61.18259316701815</v>
       </c>
       <c r="K13" t="n">
-        <v>231.690115036091</v>
+        <v>231.6901150360909</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112333</v>
+        <v>352.5708868112332</v>
       </c>
       <c r="M13" t="n">
         <v>382.230629788211</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765376</v>
+        <v>378.6315512765375</v>
       </c>
       <c r="O13" t="n">
         <v>333.5494446190452</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410828</v>
+        <v>261.6509074410827</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998335</v>
+        <v>96.87566713998332</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104633</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.075853595464669</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>245.9177694853264</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36926,7 +36926,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875399</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>409.1088842875399</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394542</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>425.4542490066519</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
